--- a/config_12.15/fish3d_config.xlsx
+++ b/config_12.15/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="426">
   <si>
     <t>line|行号</t>
   </si>
@@ -2493,6 +2493,17 @@
     <t>礼盒boss</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>Fish3D091</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子boss</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_jzy</t>
+  </si>
 </sst>
 </file>
 
@@ -2501,7 +2512,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2575,6 +2586,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2651,7 +2668,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2843,6 +2860,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3125,7 +3151,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
+      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8790,8 +8816,88 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
-      <c r="E62" s="13"/>
+    <row r="62" spans="1:36" s="65" customFormat="1" ht="16.5">
+      <c r="A62" s="52">
+        <v>61</v>
+      </c>
+      <c r="B62" s="52">
+        <v>61</v>
+      </c>
+      <c r="C62" s="53" t="s">
+        <v>423</v>
+      </c>
+      <c r="D62" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="E62" s="53" t="s">
+        <v>424</v>
+      </c>
+      <c r="F62" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="G62" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="H62" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="I62" s="53">
+        <v>2.64</v>
+      </c>
+      <c r="J62" s="53">
+        <v>2.38</v>
+      </c>
+      <c r="K62" s="52">
+        <v>1</v>
+      </c>
+      <c r="L62" s="52">
+        <v>30</v>
+      </c>
+      <c r="M62" s="53">
+        <v>1</v>
+      </c>
+      <c r="N62" s="52">
+        <v>0</v>
+      </c>
+      <c r="O62" s="52">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="53">
+        <v>0.64</v>
+      </c>
+      <c r="R62" s="55">
+        <v>0.73</v>
+      </c>
+      <c r="S62" s="55">
+        <v>0.74</v>
+      </c>
+      <c r="T62" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="U62" s="55">
+        <v>1</v>
+      </c>
+      <c r="V62" s="55">
+        <v>0.8</v>
+      </c>
+      <c r="W62" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="Y62" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z62" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA62" s="52">
+        <v>1</v>
+      </c>
+      <c r="AC62" s="52">
+        <v>1000</v>
+      </c>
+      <c r="AD62" s="52">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="63" spans="1:36">
       <c r="E63" s="13"/>
